--- a/ytubes.xlsx
+++ b/ytubes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montanaedu-my.sharepoint.com/personal/n47c392_msu_montana_edu/Documents/GitHub/Quarto Website/MSU_Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montanaedu-my.sharepoint.com/personal/n47c392_msu_montana_edu/Documents/GitHub/Quarto Website/Strand_etal_2024_pbfield/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="46" documentId="8_{3439142B-B643-7642-B4EB-A12E042CFC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{746243A9-BD1A-1440-9FF1-2E9DC57F36A5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{0DBD9CA3-EDAD-984D-982D-5475BF293165}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17000" xr2:uid="{0DBD9CA3-EDAD-984D-982D-5475BF293165}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
